--- a/files/separadas/repeat_p22.xlsx
+++ b/files/separadas/repeat_p22.xlsx
@@ -5308,13 +5308,13 @@
         <v>349</v>
       </c>
       <c r="AH100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AI100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AJ100">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="101" spans="1:36">
@@ -5346,13 +5346,13 @@
         <v>349</v>
       </c>
       <c r="AH101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:36">
@@ -5384,13 +5384,13 @@
         <v>349</v>
       </c>
       <c r="AH102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:36">
@@ -5422,13 +5422,13 @@
         <v>349</v>
       </c>
       <c r="AH103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:36">

--- a/files/separadas/repeat_p22.xlsx
+++ b/files/separadas/repeat_p22.xlsx
@@ -6562,13 +6562,13 @@
         <v>349</v>
       </c>
       <c r="AH133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134" spans="1:36">
@@ -6600,13 +6600,13 @@
         <v>349</v>
       </c>
       <c r="AH134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:36">
@@ -6638,13 +6638,13 @@
         <v>349</v>
       </c>
       <c r="AH135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:36">
@@ -6676,13 +6676,13 @@
         <v>349</v>
       </c>
       <c r="AH136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:36">
@@ -6714,13 +6714,13 @@
         <v>349</v>
       </c>
       <c r="AH137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:36">
@@ -6752,13 +6752,13 @@
         <v>349</v>
       </c>
       <c r="AH138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" spans="1:36">
@@ -6790,13 +6790,13 @@
         <v>349</v>
       </c>
       <c r="AH139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" spans="1:36">
@@ -6828,13 +6828,13 @@
         <v>349</v>
       </c>
       <c r="AH140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="141" spans="1:36">
@@ -6866,13 +6866,13 @@
         <v>349</v>
       </c>
       <c r="AH141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142" spans="1:36">
@@ -6904,13 +6904,13 @@
         <v>349</v>
       </c>
       <c r="AH142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AI142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AJ142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:36">

--- a/files/separadas/repeat_p22.xlsx
+++ b/files/separadas/repeat_p22.xlsx
@@ -6562,13 +6562,13 @@
         <v>349</v>
       </c>
       <c r="AH133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:36">
@@ -6600,13 +6600,13 @@
         <v>349</v>
       </c>
       <c r="AH134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ134">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:36">
@@ -6638,13 +6638,13 @@
         <v>349</v>
       </c>
       <c r="AH135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:36">
@@ -6676,13 +6676,13 @@
         <v>349</v>
       </c>
       <c r="AH136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:36">
@@ -6714,13 +6714,13 @@
         <v>349</v>
       </c>
       <c r="AH137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ137">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:36">
@@ -6752,13 +6752,13 @@
         <v>349</v>
       </c>
       <c r="AH138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ138">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:36">
@@ -6790,13 +6790,13 @@
         <v>349</v>
       </c>
       <c r="AH139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:36">
@@ -6828,13 +6828,13 @@
         <v>349</v>
       </c>
       <c r="AH140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ140">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:36">
@@ -6866,13 +6866,13 @@
         <v>349</v>
       </c>
       <c r="AH141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:36">
@@ -6904,13 +6904,13 @@
         <v>349</v>
       </c>
       <c r="AH142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AI142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:36">

--- a/files/separadas/repeat_p22.xlsx
+++ b/files/separadas/repeat_p22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Jose\Downloads\bucles\files\separadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5557D36-951F-4B35-BA50-10E59BBF531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D7257-DE97-4ADE-BB93-D1A77CB08CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="349">
   <si>
     <t>p22_act</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1088,7 +1085,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1144,7 +1141,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1447,15 +1444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI241"/>
+  <dimension ref="A1:AH241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AM9" sqref="AM9"/>
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,22 +1555,19 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1582,33 +1576,30 @@
         <v>4</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="2">
         <v>44992.706018518518</v>
       </c>
       <c r="AE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3">
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -1617,33 +1608,30 @@
         <v>6</v>
       </c>
       <c r="AA3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="2">
         <v>44998.826516203713</v>
       </c>
       <c r="AE3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4">
         <v>3</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y4">
         <v>3</v>
@@ -1652,33 +1640,30 @@
         <v>7</v>
       </c>
       <c r="AA4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="2">
         <v>45013.731631944444</v>
       </c>
       <c r="AE4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W5">
         <v>4</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -1687,33 +1672,30 @@
         <v>9</v>
       </c>
       <c r="AA5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB5" s="2">
         <v>45021.788078703707</v>
       </c>
       <c r="AE5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W6">
         <v>5</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -1722,33 +1704,30 @@
         <v>10</v>
       </c>
       <c r="AA6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="AE6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH6">
         <v>0.3</v>
       </c>
-      <c r="AI6">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W7">
         <v>6</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1757,33 +1736,30 @@
         <v>10</v>
       </c>
       <c r="AA7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="AE7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH7">
         <v>0.5</v>
       </c>
-      <c r="AI7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W8">
         <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1792,33 +1768,30 @@
         <v>10</v>
       </c>
       <c r="AA8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB8" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="AE8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH8">
         <v>0.6</v>
       </c>
-      <c r="AI8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W9">
         <v>8</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1827,33 +1800,30 @@
         <v>10</v>
       </c>
       <c r="AA9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB9" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="AE9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH9">
         <v>0.3</v>
       </c>
-      <c r="AI9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W10">
         <v>9</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1862,33 +1832,30 @@
         <v>10</v>
       </c>
       <c r="AA10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="AE10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH10">
         <v>0.3</v>
       </c>
-      <c r="AI10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W11">
         <v>10</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1897,33 +1864,30 @@
         <v>10</v>
       </c>
       <c r="AA11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="2">
         <v>45026.556944444441</v>
       </c>
       <c r="AE11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH11">
         <v>0.3</v>
       </c>
-      <c r="AI11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W12">
         <v>11</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y12">
         <v>6</v>
@@ -1932,33 +1896,30 @@
         <v>12</v>
       </c>
       <c r="AA12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB12" s="2">
         <v>45026.782777777778</v>
       </c>
       <c r="AE12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH12">
         <v>0</v>
       </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
       </c>
       <c r="W13">
         <v>12</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y13">
         <v>7</v>
@@ -1967,33 +1928,30 @@
         <v>13</v>
       </c>
       <c r="AA13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB13" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="AE13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH13">
         <v>0</v>
       </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14">
         <v>13</v>
       </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y14">
         <v>7</v>
@@ -2002,33 +1960,30 @@
         <v>13</v>
       </c>
       <c r="AA14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB14" s="2">
         <v>45027.659305555557</v>
       </c>
       <c r="AE14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W15">
         <v>14</v>
       </c>
       <c r="X15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y15">
         <v>8</v>
@@ -2037,33 +1992,30 @@
         <v>14</v>
       </c>
       <c r="AA15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB15" s="2">
         <v>45028.798703703702</v>
       </c>
       <c r="AE15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W16">
         <v>15</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y16">
         <v>9</v>
@@ -2072,33 +2024,30 @@
         <v>15</v>
       </c>
       <c r="AA16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="2">
         <v>45028.820057870369</v>
       </c>
       <c r="AE16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W17">
         <v>16</v>
       </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y17">
         <v>10</v>
@@ -2107,33 +2056,30 @@
         <v>16</v>
       </c>
       <c r="AA17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AB17" s="2">
         <v>45028.887245370373</v>
       </c>
       <c r="AE17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH17">
         <v>0</v>
       </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W18">
         <v>17</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y18">
         <v>11</v>
@@ -2142,33 +2088,30 @@
         <v>17</v>
       </c>
       <c r="AA18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB18" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH18">
         <v>0</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W19">
         <v>18</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y19">
         <v>11</v>
@@ -2177,33 +2120,30 @@
         <v>17</v>
       </c>
       <c r="AA19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB19" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH19">
         <v>0</v>
       </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W20">
         <v>19</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y20">
         <v>11</v>
@@ -2212,33 +2152,30 @@
         <v>17</v>
       </c>
       <c r="AA20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB20" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH20">
         <v>0</v>
       </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W21">
         <v>20</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y21">
         <v>11</v>
@@ -2247,33 +2184,30 @@
         <v>17</v>
       </c>
       <c r="AA21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB21" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W22">
         <v>21</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y22">
         <v>11</v>
@@ -2282,33 +2216,30 @@
         <v>17</v>
       </c>
       <c r="AA22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB22" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH22">
         <v>0</v>
       </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W23">
         <v>22</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y23">
         <v>11</v>
@@ -2317,33 +2248,30 @@
         <v>17</v>
       </c>
       <c r="AA23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB23" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH23">
         <v>0</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W24">
         <v>23</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y24">
         <v>11</v>
@@ -2352,33 +2280,30 @@
         <v>17</v>
       </c>
       <c r="AA24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB24" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH24">
         <v>0</v>
       </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W25">
         <v>24</v>
       </c>
       <c r="X25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y25">
         <v>11</v>
@@ -2387,33 +2312,30 @@
         <v>17</v>
       </c>
       <c r="AA25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB25" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W26">
         <v>25</v>
       </c>
       <c r="X26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y26">
         <v>11</v>
@@ -2422,33 +2344,30 @@
         <v>17</v>
       </c>
       <c r="AA26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB26" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH26">
         <v>0</v>
       </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W27">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y27">
         <v>11</v>
@@ -2457,33 +2376,30 @@
         <v>17</v>
       </c>
       <c r="AA27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB27" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W28">
         <v>27</v>
       </c>
       <c r="X28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y28">
         <v>11</v>
@@ -2492,33 +2408,30 @@
         <v>17</v>
       </c>
       <c r="AA28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB28" s="2">
         <v>45028.903171296297</v>
       </c>
       <c r="AE28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH28">
         <v>0</v>
       </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W29">
         <v>28</v>
       </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y29">
         <v>12</v>
@@ -2527,33 +2440,30 @@
         <v>18</v>
       </c>
       <c r="AA29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB29" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="AE29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH29">
         <v>0</v>
       </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W30">
         <v>29</v>
       </c>
       <c r="X30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y30">
         <v>12</v>
@@ -2562,33 +2472,30 @@
         <v>18</v>
       </c>
       <c r="AA30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB30" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="AE30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W31">
         <v>30</v>
       </c>
       <c r="X31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y31">
         <v>12</v>
@@ -2597,33 +2504,30 @@
         <v>18</v>
       </c>
       <c r="AA31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB31" s="2">
         <v>45029.811898148153</v>
       </c>
       <c r="AE31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W32">
         <v>31</v>
       </c>
       <c r="X32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y32">
         <v>13</v>
@@ -2632,33 +2536,30 @@
         <v>20</v>
       </c>
       <c r="AA32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB32" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="AE32" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>84</v>
       </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W33">
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y33">
         <v>13</v>
@@ -2667,33 +2568,30 @@
         <v>20</v>
       </c>
       <c r="AA33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB33" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="AE33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W34">
         <v>33</v>
       </c>
       <c r="X34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y34">
         <v>13</v>
@@ -2702,33 +2600,30 @@
         <v>20</v>
       </c>
       <c r="AA34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB34" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="AE34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W35">
         <v>34</v>
       </c>
       <c r="X35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y35">
         <v>13</v>
@@ -2737,33 +2632,30 @@
         <v>20</v>
       </c>
       <c r="AA35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AB35" s="2">
         <v>45029.854571759257</v>
       </c>
       <c r="AE35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH35">
         <v>0</v>
       </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W36">
         <v>35</v>
       </c>
       <c r="X36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y36">
         <v>14</v>
@@ -2772,33 +2664,30 @@
         <v>21</v>
       </c>
       <c r="AA36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB36" s="2">
         <v>45029.863969907397</v>
       </c>
       <c r="AE36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH36">
         <v>0</v>
       </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W37">
         <v>36</v>
       </c>
       <c r="X37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y37">
         <v>15</v>
@@ -2807,33 +2696,30 @@
         <v>22</v>
       </c>
       <c r="AA37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="AE37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37">
         <v>0</v>
       </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W38">
         <v>37</v>
       </c>
       <c r="X38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y38">
         <v>15</v>
@@ -2842,33 +2728,30 @@
         <v>22</v>
       </c>
       <c r="AA38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB38" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="AE38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38">
         <v>0</v>
       </c>
-      <c r="AI38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W39">
         <v>38</v>
       </c>
       <c r="X39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y39">
         <v>16</v>
@@ -2877,33 +2760,30 @@
         <v>25</v>
       </c>
       <c r="AA39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB39" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="AE39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH39">
         <v>0</v>
       </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W40">
         <v>39</v>
       </c>
       <c r="X40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y40">
         <v>16</v>
@@ -2912,33 +2792,30 @@
         <v>25</v>
       </c>
       <c r="AA40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB40" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="AE40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH40">
         <v>0</v>
       </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W41">
         <v>40</v>
       </c>
       <c r="X41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y41">
         <v>16</v>
@@ -2947,33 +2824,30 @@
         <v>25</v>
       </c>
       <c r="AA41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB41" s="2">
         <v>45030.711909722217</v>
       </c>
       <c r="AE41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH41">
         <v>0</v>
       </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W42">
         <v>41</v>
       </c>
       <c r="X42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y42">
         <v>17</v>
@@ -2982,33 +2856,30 @@
         <v>26</v>
       </c>
       <c r="AA42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB42" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="AE42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH42">
         <v>0</v>
       </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W43">
         <v>42</v>
       </c>
       <c r="X43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y43">
         <v>17</v>
@@ -3017,33 +2888,30 @@
         <v>26</v>
       </c>
       <c r="AA43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB43" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="AE43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH43">
         <v>0</v>
       </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W44">
         <v>43</v>
       </c>
       <c r="X44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y44">
         <v>17</v>
@@ -3052,33 +2920,30 @@
         <v>26</v>
       </c>
       <c r="AA44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB44" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="AE44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH44">
         <v>0</v>
       </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W45">
         <v>44</v>
       </c>
       <c r="X45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y45">
         <v>17</v>
@@ -3087,33 +2952,30 @@
         <v>26</v>
       </c>
       <c r="AA45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB45" s="2">
         <v>45030.720057870371</v>
       </c>
       <c r="AE45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH45">
         <v>0</v>
       </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W46">
         <v>45</v>
       </c>
       <c r="X46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y46">
         <v>18</v>
@@ -3122,33 +2984,30 @@
         <v>27</v>
       </c>
       <c r="AA46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AB46" s="2">
         <v>45030.793912037043</v>
       </c>
       <c r="AE46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH46">
         <v>0</v>
       </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W47">
         <v>46</v>
       </c>
       <c r="X47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y47">
         <v>19</v>
@@ -3157,33 +3016,30 @@
         <v>30</v>
       </c>
       <c r="AA47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB47" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="AE47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH47">
         <v>0</v>
       </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W48">
         <v>47</v>
       </c>
       <c r="X48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y48">
         <v>19</v>
@@ -3192,33 +3048,30 @@
         <v>30</v>
       </c>
       <c r="AA48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB48" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="AE48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH48">
         <v>0</v>
       </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W49">
         <v>48</v>
       </c>
       <c r="X49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y49">
         <v>19</v>
@@ -3227,33 +3080,30 @@
         <v>30</v>
       </c>
       <c r="AA49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AB49" s="2">
         <v>45030.943865740737</v>
       </c>
       <c r="AE49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH49">
         <v>0</v>
       </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W50">
         <v>49</v>
       </c>
       <c r="X50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y50">
         <v>20</v>
@@ -3262,33 +3112,30 @@
         <v>33</v>
       </c>
       <c r="AA50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB50" s="2">
         <v>45030.958981481483</v>
       </c>
       <c r="AE50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH50">
         <v>0</v>
       </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W51">
         <v>50</v>
       </c>
       <c r="X51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y51">
         <v>21</v>
@@ -3297,33 +3144,30 @@
         <v>34</v>
       </c>
       <c r="AA51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AB51" s="2">
         <v>45030.976238425923</v>
       </c>
       <c r="AE51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH51">
         <v>0.3</v>
       </c>
-      <c r="AI51">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W52">
         <v>51</v>
       </c>
       <c r="X52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y52">
         <v>22</v>
@@ -3332,33 +3176,30 @@
         <v>37</v>
       </c>
       <c r="AA52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB52" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="AE52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH52">
         <v>0</v>
       </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W53">
         <v>52</v>
       </c>
       <c r="X53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y53">
         <v>22</v>
@@ -3367,33 +3208,30 @@
         <v>37</v>
       </c>
       <c r="AA53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB53" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="AE53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH53">
         <v>0</v>
       </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W54">
         <v>53</v>
       </c>
       <c r="X54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y54">
         <v>22</v>
@@ -3402,33 +3240,30 @@
         <v>37</v>
       </c>
       <c r="AA54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB54" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="AE54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH54">
         <v>0</v>
       </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W55">
         <v>54</v>
       </c>
       <c r="X55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y55">
         <v>22</v>
@@ -3437,33 +3272,30 @@
         <v>37</v>
       </c>
       <c r="AA55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB55" s="2">
         <v>45031.151331018518</v>
       </c>
       <c r="AE55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH55">
         <v>0</v>
       </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W56">
         <v>55</v>
       </c>
       <c r="X56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y56">
         <v>23</v>
@@ -3472,33 +3304,30 @@
         <v>38</v>
       </c>
       <c r="AA56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB56" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="AE56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH56">
         <v>0</v>
       </c>
-      <c r="AI56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W57">
         <v>56</v>
       </c>
       <c r="X57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y57">
         <v>23</v>
@@ -3507,33 +3336,30 @@
         <v>38</v>
       </c>
       <c r="AA57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB57" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="AE57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH57">
         <v>0</v>
       </c>
-      <c r="AI57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W58">
         <v>57</v>
       </c>
       <c r="X58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y58">
         <v>23</v>
@@ -3542,33 +3368,30 @@
         <v>38</v>
       </c>
       <c r="AA58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB58" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="AE58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH58">
         <v>0</v>
       </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W59">
         <v>58</v>
       </c>
       <c r="X59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y59">
         <v>23</v>
@@ -3577,33 +3400,30 @@
         <v>38</v>
       </c>
       <c r="AA59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB59" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="AE59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH59">
         <v>0</v>
       </c>
-      <c r="AI59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W60">
         <v>59</v>
       </c>
       <c r="X60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y60">
         <v>23</v>
@@ -3612,33 +3432,30 @@
         <v>38</v>
       </c>
       <c r="AA60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB60" s="2">
         <v>45031.191064814811</v>
       </c>
       <c r="AE60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH60">
         <v>0</v>
       </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W61">
         <v>60</v>
       </c>
       <c r="X61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y61">
         <v>24</v>
@@ -3647,33 +3464,30 @@
         <v>51</v>
       </c>
       <c r="AA61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB61" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61">
         <v>0</v>
       </c>
-      <c r="AI61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W62">
         <v>61</v>
       </c>
       <c r="X62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y62">
         <v>24</v>
@@ -3682,33 +3496,30 @@
         <v>51</v>
       </c>
       <c r="AA62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB62" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62">
         <v>0</v>
       </c>
-      <c r="AI62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W63">
         <v>62</v>
       </c>
       <c r="X63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y63">
         <v>24</v>
@@ -3717,33 +3528,30 @@
         <v>51</v>
       </c>
       <c r="AA63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB63" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63">
         <v>0</v>
       </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W64">
         <v>63</v>
       </c>
       <c r="X64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y64">
         <v>24</v>
@@ -3752,33 +3560,30 @@
         <v>51</v>
       </c>
       <c r="AA64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB64" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH64">
         <v>0</v>
       </c>
-      <c r="AI64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W65">
         <v>64</v>
       </c>
       <c r="X65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y65">
         <v>24</v>
@@ -3787,33 +3592,30 @@
         <v>51</v>
       </c>
       <c r="AA65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB65" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH65">
         <v>0</v>
       </c>
-      <c r="AI65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W66">
         <v>65</v>
       </c>
       <c r="X66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y66">
         <v>24</v>
@@ -3822,33 +3624,30 @@
         <v>51</v>
       </c>
       <c r="AA66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB66" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66">
         <v>0</v>
       </c>
-      <c r="AI66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W67">
         <v>66</v>
       </c>
       <c r="X67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y67">
         <v>24</v>
@@ -3857,33 +3656,30 @@
         <v>51</v>
       </c>
       <c r="AA67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB67" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67">
         <v>0</v>
       </c>
-      <c r="AI67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W68">
         <v>67</v>
       </c>
       <c r="X68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y68">
         <v>24</v>
@@ -3892,33 +3688,30 @@
         <v>51</v>
       </c>
       <c r="AA68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB68" s="2">
         <v>45033.697638888887</v>
       </c>
       <c r="AE68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68">
         <v>0</v>
       </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W69">
         <v>68</v>
       </c>
       <c r="X69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y69">
         <v>25</v>
@@ -3927,33 +3720,30 @@
         <v>52</v>
       </c>
       <c r="AA69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB69" s="2">
         <v>45033.799467592587</v>
       </c>
       <c r="AE69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH69">
         <v>0</v>
       </c>
-      <c r="AI69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W70">
         <v>69</v>
       </c>
       <c r="X70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y70">
         <v>26</v>
@@ -3962,33 +3752,30 @@
         <v>55</v>
       </c>
       <c r="AA70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB70" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="AE70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH70">
         <v>0</v>
       </c>
-      <c r="AI70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W71">
         <v>70</v>
       </c>
       <c r="X71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y71">
         <v>26</v>
@@ -3997,33 +3784,30 @@
         <v>55</v>
       </c>
       <c r="AA71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB71" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="AE71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH71">
         <v>0</v>
       </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W72">
         <v>71</v>
       </c>
       <c r="X72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y72">
         <v>26</v>
@@ -4032,33 +3816,30 @@
         <v>55</v>
       </c>
       <c r="AA72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB72" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="AE72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH72">
         <v>0</v>
       </c>
-      <c r="AI72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W73">
         <v>72</v>
       </c>
       <c r="X73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y73">
         <v>26</v>
@@ -4067,33 +3848,30 @@
         <v>55</v>
       </c>
       <c r="AA73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB73" s="2">
         <v>45033.886354166672</v>
       </c>
       <c r="AE73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH73">
         <v>0</v>
       </c>
-      <c r="AI73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W74">
         <v>73</v>
       </c>
       <c r="X74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y74">
         <v>27</v>
@@ -4102,33 +3880,30 @@
         <v>56</v>
       </c>
       <c r="AA74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB74" s="2">
         <v>45034.645821759259</v>
       </c>
       <c r="AE74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH74">
         <v>0</v>
       </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W75">
         <v>74</v>
       </c>
       <c r="X75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y75">
         <v>28</v>
@@ -4137,33 +3912,30 @@
         <v>57</v>
       </c>
       <c r="AA75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB75" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="AE75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH75">
         <v>0</v>
       </c>
-      <c r="AI75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W76">
         <v>75</v>
       </c>
       <c r="X76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y76">
         <v>28</v>
@@ -4172,33 +3944,30 @@
         <v>57</v>
       </c>
       <c r="AA76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB76" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="AE76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH76">
         <v>0</v>
       </c>
-      <c r="AI76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W77">
         <v>76</v>
       </c>
       <c r="X77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y77">
         <v>29</v>
@@ -4207,33 +3976,30 @@
         <v>58</v>
       </c>
       <c r="AA77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB77" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="AE77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH77">
         <v>0</v>
       </c>
-      <c r="AI77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W78">
         <v>77</v>
       </c>
       <c r="X78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y78">
         <v>29</v>
@@ -4242,33 +4008,30 @@
         <v>58</v>
       </c>
       <c r="AA78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB78" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="AE78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH78">
         <v>0</v>
       </c>
-      <c r="AI78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W79">
         <v>78</v>
       </c>
       <c r="X79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y79">
         <v>29</v>
@@ -4277,33 +4040,30 @@
         <v>58</v>
       </c>
       <c r="AA79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB79" s="2">
         <v>45034.895462962973</v>
       </c>
       <c r="AE79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH79">
         <v>0</v>
       </c>
-      <c r="AI79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W80">
         <v>79</v>
       </c>
       <c r="X80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y80">
         <v>30</v>
@@ -4312,33 +4072,30 @@
         <v>59</v>
       </c>
       <c r="AA80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB80" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH80">
         <v>0</v>
       </c>
-      <c r="AI80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W81">
         <v>80</v>
       </c>
       <c r="X81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y81">
         <v>30</v>
@@ -4347,33 +4104,30 @@
         <v>59</v>
       </c>
       <c r="AA81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB81" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH81">
         <v>0</v>
       </c>
-      <c r="AI81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W82">
         <v>81</v>
       </c>
       <c r="X82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y82">
         <v>30</v>
@@ -4382,33 +4136,30 @@
         <v>59</v>
       </c>
       <c r="AA82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB82" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH82">
         <v>0</v>
       </c>
-      <c r="AI82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W83">
         <v>82</v>
       </c>
       <c r="X83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y83">
         <v>30</v>
@@ -4417,33 +4168,30 @@
         <v>59</v>
       </c>
       <c r="AA83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB83" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH83">
         <v>0</v>
       </c>
-      <c r="AI83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W84">
         <v>83</v>
       </c>
       <c r="X84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y84">
         <v>30</v>
@@ -4452,33 +4200,30 @@
         <v>59</v>
       </c>
       <c r="AA84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB84" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH84">
         <v>0</v>
       </c>
-      <c r="AI84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W85">
         <v>84</v>
       </c>
       <c r="X85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y85">
         <v>30</v>
@@ -4487,33 +4232,30 @@
         <v>59</v>
       </c>
       <c r="AA85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB85" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH85">
         <v>0</v>
       </c>
-      <c r="AI85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W86">
         <v>85</v>
       </c>
       <c r="X86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y86">
         <v>30</v>
@@ -4522,33 +4264,30 @@
         <v>59</v>
       </c>
       <c r="AA86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB86" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH86">
         <v>0</v>
       </c>
-      <c r="AI86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W87">
         <v>86</v>
       </c>
       <c r="X87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y87">
         <v>30</v>
@@ -4557,33 +4296,30 @@
         <v>59</v>
       </c>
       <c r="AA87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB87" s="2">
         <v>45034.905069444438</v>
       </c>
       <c r="AE87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH87">
         <v>0</v>
       </c>
-      <c r="AI87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W88">
         <v>87</v>
       </c>
       <c r="X88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y88">
         <v>31</v>
@@ -4592,33 +4328,30 @@
         <v>60</v>
       </c>
       <c r="AA88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB88" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="AE88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH88">
         <v>0</v>
       </c>
-      <c r="AI88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W89">
         <v>88</v>
       </c>
       <c r="X89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y89">
         <v>31</v>
@@ -4627,33 +4360,30 @@
         <v>60</v>
       </c>
       <c r="AA89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB89" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="AE89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH89">
         <v>0</v>
       </c>
-      <c r="AI89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W90">
         <v>89</v>
       </c>
       <c r="X90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y90">
         <v>31</v>
@@ -4662,33 +4392,30 @@
         <v>60</v>
       </c>
       <c r="AA90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB90" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="AE90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH90">
         <v>0</v>
       </c>
-      <c r="AI90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W91">
         <v>90</v>
       </c>
       <c r="X91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y91">
         <v>31</v>
@@ -4697,33 +4424,30 @@
         <v>60</v>
       </c>
       <c r="AA91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB91" s="2">
         <v>45034.923692129632</v>
       </c>
       <c r="AE91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH91">
         <v>0</v>
       </c>
-      <c r="AI91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W92">
         <v>91</v>
       </c>
       <c r="X92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y92">
         <v>32</v>
@@ -4732,33 +4456,30 @@
         <v>61</v>
       </c>
       <c r="AA92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB92" s="2">
         <v>45034.945092592592</v>
       </c>
       <c r="AE92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH92">
         <v>0</v>
       </c>
-      <c r="AI92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W93">
         <v>92</v>
       </c>
       <c r="X93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y93">
         <v>33</v>
@@ -4767,33 +4488,30 @@
         <v>63</v>
       </c>
       <c r="AA93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB93" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="AE93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH93">
         <v>0</v>
       </c>
-      <c r="AI93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W94">
         <v>93</v>
       </c>
       <c r="X94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y94">
         <v>33</v>
@@ -4802,33 +4520,30 @@
         <v>63</v>
       </c>
       <c r="AA94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB94" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="AE94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH94">
         <v>0</v>
       </c>
-      <c r="AI94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W95">
         <v>94</v>
       </c>
       <c r="X95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y95">
         <v>33</v>
@@ -4837,33 +4552,30 @@
         <v>63</v>
       </c>
       <c r="AA95" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB95" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="AE95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH95">
         <v>0</v>
       </c>
-      <c r="AI95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W96">
         <v>95</v>
       </c>
       <c r="X96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y96">
         <v>33</v>
@@ -4872,33 +4584,30 @@
         <v>63</v>
       </c>
       <c r="AA96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB96" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="AE96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH96">
         <v>0</v>
       </c>
-      <c r="AI96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W97">
         <v>96</v>
       </c>
       <c r="X97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y97">
         <v>33</v>
@@ -4907,33 +4616,30 @@
         <v>63</v>
       </c>
       <c r="AA97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB97" s="2">
         <v>45035.704583333332</v>
       </c>
       <c r="AE97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH97">
         <v>0</v>
       </c>
-      <c r="AI97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W98">
         <v>97</v>
       </c>
       <c r="X98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y98">
         <v>34</v>
@@ -4942,33 +4648,30 @@
         <v>64</v>
       </c>
       <c r="AA98" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB98" s="2">
         <v>45035.836608796293</v>
       </c>
       <c r="AE98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH98">
         <v>0</v>
       </c>
-      <c r="AI98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W99">
         <v>98</v>
       </c>
       <c r="X99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y99">
         <v>35</v>
@@ -4977,33 +4680,30 @@
         <v>75</v>
       </c>
       <c r="AA99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB99" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="AE99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH99">
         <v>0</v>
       </c>
-      <c r="AI99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W100">
         <v>99</v>
       </c>
       <c r="X100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y100">
         <v>36</v>
@@ -5012,33 +4712,30 @@
         <v>77</v>
       </c>
       <c r="AA100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB100" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="AE100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH100">
         <v>0.3</v>
       </c>
-      <c r="AI100">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W101">
         <v>100</v>
       </c>
       <c r="X101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y101">
         <v>36</v>
@@ -5047,33 +4744,30 @@
         <v>77</v>
       </c>
       <c r="AA101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB101" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="AE101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH101">
         <v>0.5</v>
       </c>
-      <c r="AI101">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W102">
         <v>101</v>
       </c>
       <c r="X102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y102">
         <v>36</v>
@@ -5082,33 +4776,30 @@
         <v>77</v>
       </c>
       <c r="AA102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB102" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="AE102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH102">
         <v>0.5</v>
       </c>
-      <c r="AI102">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W103">
         <v>102</v>
       </c>
       <c r="X103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y103">
         <v>36</v>
@@ -5117,33 +4808,30 @@
         <v>77</v>
       </c>
       <c r="AA103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AB103" s="2">
         <v>45040.917164351849</v>
       </c>
       <c r="AE103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH103">
         <v>0.5</v>
       </c>
-      <c r="AI103">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W104">
         <v>103</v>
       </c>
       <c r="X104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y104">
         <v>37</v>
@@ -5152,33 +4840,30 @@
         <v>78</v>
       </c>
       <c r="AA104" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB104" s="2">
         <v>45041.153495370367</v>
       </c>
       <c r="AE104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH104">
         <v>0</v>
       </c>
-      <c r="AI104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W105">
         <v>104</v>
       </c>
       <c r="X105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y105">
         <v>38</v>
@@ -5187,33 +4872,30 @@
         <v>80</v>
       </c>
       <c r="AA105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB105" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="AE105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH105">
         <v>0</v>
       </c>
-      <c r="AI105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W106">
         <v>105</v>
       </c>
       <c r="X106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y106">
         <v>38</v>
@@ -5222,33 +4904,30 @@
         <v>80</v>
       </c>
       <c r="AA106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB106" s="2">
         <v>45041.887627314813</v>
       </c>
       <c r="AE106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH106">
         <v>0</v>
       </c>
-      <c r="AI106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W107">
         <v>106</v>
       </c>
       <c r="X107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y107">
         <v>39</v>
@@ -5257,33 +4936,30 @@
         <v>81</v>
       </c>
       <c r="AA107" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB107" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH107">
         <v>0</v>
       </c>
-      <c r="AI107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W108">
         <v>107</v>
       </c>
       <c r="X108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y108">
         <v>39</v>
@@ -5292,33 +4968,30 @@
         <v>81</v>
       </c>
       <c r="AA108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB108" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH108">
         <v>0</v>
       </c>
-      <c r="AI108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W109">
         <v>108</v>
       </c>
       <c r="X109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y109">
         <v>39</v>
@@ -5327,33 +5000,30 @@
         <v>81</v>
       </c>
       <c r="AA109" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB109" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH109">
         <v>0</v>
       </c>
-      <c r="AI109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W110">
         <v>109</v>
       </c>
       <c r="X110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y110">
         <v>39</v>
@@ -5362,33 +5032,30 @@
         <v>81</v>
       </c>
       <c r="AA110" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB110" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH110">
         <v>0</v>
       </c>
-      <c r="AI110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W111">
         <v>110</v>
       </c>
       <c r="X111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y111">
         <v>39</v>
@@ -5397,33 +5064,30 @@
         <v>81</v>
       </c>
       <c r="AA111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB111" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH111">
         <v>0</v>
       </c>
-      <c r="AI111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W112">
         <v>111</v>
       </c>
       <c r="X112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y112">
         <v>39</v>
@@ -5432,33 +5096,30 @@
         <v>81</v>
       </c>
       <c r="AA112" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB112" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH112">
         <v>0</v>
       </c>
-      <c r="AI112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W113">
         <v>112</v>
       </c>
       <c r="X113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y113">
         <v>39</v>
@@ -5467,33 +5128,30 @@
         <v>81</v>
       </c>
       <c r="AA113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB113" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH113">
         <v>0</v>
       </c>
-      <c r="AI113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W114">
         <v>113</v>
       </c>
       <c r="X114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y114">
         <v>39</v>
@@ -5502,33 +5160,30 @@
         <v>81</v>
       </c>
       <c r="AA114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB114" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH114">
         <v>0</v>
       </c>
-      <c r="AI114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W115">
         <v>114</v>
       </c>
       <c r="X115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y115">
         <v>39</v>
@@ -5537,33 +5192,30 @@
         <v>81</v>
       </c>
       <c r="AA115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB115" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH115">
         <v>0</v>
       </c>
-      <c r="AI115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W116">
         <v>115</v>
       </c>
       <c r="X116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y116">
         <v>39</v>
@@ -5572,33 +5224,30 @@
         <v>81</v>
       </c>
       <c r="AA116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB116" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH116">
         <v>0</v>
       </c>
-      <c r="AI116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W117">
         <v>116</v>
       </c>
       <c r="X117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y117">
         <v>39</v>
@@ -5607,33 +5256,30 @@
         <v>81</v>
       </c>
       <c r="AA117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB117" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH117">
         <v>0</v>
       </c>
-      <c r="AI117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W118">
         <v>117</v>
       </c>
       <c r="X118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y118">
         <v>39</v>
@@ -5642,33 +5288,30 @@
         <v>81</v>
       </c>
       <c r="AA118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB118" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH118">
         <v>0</v>
       </c>
-      <c r="AI118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W119">
         <v>118</v>
       </c>
       <c r="X119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y119">
         <v>39</v>
@@ -5677,33 +5320,30 @@
         <v>81</v>
       </c>
       <c r="AA119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB119" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH119">
         <v>0</v>
       </c>
-      <c r="AI119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W120">
         <v>119</v>
       </c>
       <c r="X120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y120">
         <v>39</v>
@@ -5712,33 +5352,30 @@
         <v>81</v>
       </c>
       <c r="AA120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB120" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH120">
         <v>0</v>
       </c>
-      <c r="AI120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W121">
         <v>120</v>
       </c>
       <c r="X121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y121">
         <v>39</v>
@@ -5747,33 +5384,30 @@
         <v>81</v>
       </c>
       <c r="AA121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB121" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH121">
         <v>0</v>
       </c>
-      <c r="AI121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W122">
         <v>121</v>
       </c>
       <c r="X122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y122">
         <v>39</v>
@@ -5782,33 +5416,30 @@
         <v>81</v>
       </c>
       <c r="AA122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB122" s="2">
         <v>45041.988726851851</v>
       </c>
       <c r="AE122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH122">
         <v>0</v>
       </c>
-      <c r="AI122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W123">
         <v>122</v>
       </c>
       <c r="X123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y123">
         <v>40</v>
@@ -5817,33 +5448,30 @@
         <v>82</v>
       </c>
       <c r="AA123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB123" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="AE123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH123">
         <v>0</v>
       </c>
-      <c r="AI123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W124">
         <v>123</v>
       </c>
       <c r="X124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y124">
         <v>40</v>
@@ -5852,33 +5480,30 @@
         <v>82</v>
       </c>
       <c r="AA124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB124" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="AE124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH124">
         <v>0</v>
       </c>
-      <c r="AI124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W125">
         <v>124</v>
       </c>
       <c r="X125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y125">
         <v>40</v>
@@ -5887,33 +5512,30 @@
         <v>82</v>
       </c>
       <c r="AA125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AB125" s="2">
         <v>45042.750219907408</v>
       </c>
       <c r="AE125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH125">
         <v>0</v>
       </c>
-      <c r="AI125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W126">
         <v>125</v>
       </c>
       <c r="X126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y126">
         <v>41</v>
@@ -5922,33 +5544,30 @@
         <v>83</v>
       </c>
       <c r="AA126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AB126" s="2">
         <v>45042.864039351851</v>
       </c>
       <c r="AE126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH126">
         <v>0</v>
       </c>
-      <c r="AI126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W127">
         <v>126</v>
       </c>
       <c r="X127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y127">
         <v>42</v>
@@ -5957,33 +5576,30 @@
         <v>84</v>
       </c>
       <c r="AA127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB127" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="AE127" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH127">
         <v>0</v>
       </c>
-      <c r="AI127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W128">
         <v>127</v>
       </c>
       <c r="X128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y128">
         <v>42</v>
@@ -5992,33 +5608,30 @@
         <v>84</v>
       </c>
       <c r="AA128" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB128" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="AE128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH128">
         <v>0</v>
       </c>
-      <c r="AI128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W129">
         <v>128</v>
       </c>
       <c r="X129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y129">
         <v>42</v>
@@ -6027,33 +5640,30 @@
         <v>84</v>
       </c>
       <c r="AA129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB129" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="AE129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH129">
         <v>0</v>
       </c>
-      <c r="AI129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W130">
         <v>129</v>
       </c>
       <c r="X130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y130">
         <v>42</v>
@@ -6062,33 +5672,30 @@
         <v>84</v>
       </c>
       <c r="AA130" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB130" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="AE130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH130">
         <v>0</v>
       </c>
-      <c r="AI130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W131">
         <v>130</v>
       </c>
       <c r="X131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y131">
         <v>42</v>
@@ -6097,33 +5704,30 @@
         <v>84</v>
       </c>
       <c r="AA131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB131" s="2">
         <v>45042.982534722221</v>
       </c>
       <c r="AE131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH131">
         <v>0</v>
       </c>
-      <c r="AI131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W132">
         <v>131</v>
       </c>
       <c r="X132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y132">
         <v>43</v>
@@ -6132,33 +5736,30 @@
         <v>86</v>
       </c>
       <c r="AA132" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB132" s="2">
         <v>45043.572395833333</v>
       </c>
       <c r="AE132" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH132">
         <v>0</v>
       </c>
-      <c r="AI132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W133">
         <v>132</v>
       </c>
       <c r="X133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y133">
         <v>44</v>
@@ -6167,33 +5768,30 @@
         <v>87</v>
       </c>
       <c r="AA133" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB133" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH133">
         <v>0.5</v>
       </c>
-      <c r="AI133">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W134">
         <v>133</v>
       </c>
       <c r="X134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y134">
         <v>44</v>
@@ -6202,33 +5800,30 @@
         <v>87</v>
       </c>
       <c r="AA134" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB134" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH134">
         <v>0.5</v>
       </c>
-      <c r="AI134">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W135">
         <v>134</v>
       </c>
       <c r="X135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y135">
         <v>44</v>
@@ -6237,33 +5832,30 @@
         <v>87</v>
       </c>
       <c r="AA135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB135" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH135">
         <v>0.5</v>
       </c>
-      <c r="AI135">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W136">
         <v>135</v>
       </c>
       <c r="X136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y136">
         <v>44</v>
@@ -6272,33 +5864,30 @@
         <v>87</v>
       </c>
       <c r="AA136" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB136" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH136">
         <v>0.5</v>
       </c>
-      <c r="AI136">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W137">
         <v>136</v>
       </c>
       <c r="X137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y137">
         <v>44</v>
@@ -6307,33 +5896,30 @@
         <v>87</v>
       </c>
       <c r="AA137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB137" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH137">
         <v>0.5</v>
       </c>
-      <c r="AI137">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W138">
         <v>137</v>
       </c>
       <c r="X138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y138">
         <v>44</v>
@@ -6342,33 +5928,30 @@
         <v>87</v>
       </c>
       <c r="AA138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB138" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH138">
         <v>0.5</v>
       </c>
-      <c r="AI138">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W139">
         <v>138</v>
       </c>
       <c r="X139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y139">
         <v>44</v>
@@ -6377,33 +5960,30 @@
         <v>87</v>
       </c>
       <c r="AA139" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB139" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH139">
         <v>0.5</v>
       </c>
-      <c r="AI139">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W140">
         <v>139</v>
       </c>
       <c r="X140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y140">
         <v>44</v>
@@ -6412,33 +5992,30 @@
         <v>87</v>
       </c>
       <c r="AA140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB140" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH140">
         <v>0.5</v>
       </c>
-      <c r="AI140">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W141">
         <v>140</v>
       </c>
       <c r="X141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y141">
         <v>44</v>
@@ -6447,33 +6024,30 @@
         <v>87</v>
       </c>
       <c r="AA141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB141" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH141">
         <v>0.5</v>
       </c>
-      <c r="AI141">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W142">
         <v>141</v>
       </c>
       <c r="X142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y142">
         <v>44</v>
@@ -6482,33 +6056,30 @@
         <v>87</v>
       </c>
       <c r="AA142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB142" s="2">
         <v>45043.746307870373</v>
       </c>
       <c r="AE142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH142">
         <v>0.5</v>
       </c>
-      <c r="AI142">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W143">
         <v>142</v>
       </c>
       <c r="X143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y143">
         <v>45</v>
@@ -6517,33 +6088,30 @@
         <v>88</v>
       </c>
       <c r="AA143" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AB143" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="AE143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH143">
         <v>0</v>
       </c>
-      <c r="AI143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W144">
         <v>143</v>
       </c>
       <c r="X144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y144">
         <v>45</v>
@@ -6552,33 +6120,30 @@
         <v>88</v>
       </c>
       <c r="AA144" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AB144" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="AE144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH144">
         <v>0</v>
       </c>
-      <c r="AI144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W145">
         <v>144</v>
       </c>
       <c r="X145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y145">
         <v>45</v>
@@ -6587,33 +6152,30 @@
         <v>88</v>
       </c>
       <c r="AA145" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AB145" s="2">
         <v>45043.912523148138</v>
       </c>
       <c r="AE145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH145">
         <v>0</v>
       </c>
-      <c r="AI145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W146">
         <v>145</v>
       </c>
       <c r="X146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y146">
         <v>46</v>
@@ -6622,33 +6184,30 @@
         <v>90</v>
       </c>
       <c r="AA146" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB146" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH146">
         <v>0</v>
       </c>
-      <c r="AI146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W147">
         <v>146</v>
       </c>
       <c r="X147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y147">
         <v>46</v>
@@ -6657,33 +6216,30 @@
         <v>90</v>
       </c>
       <c r="AA147" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB147" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH147">
         <v>0</v>
       </c>
-      <c r="AI147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W148">
         <v>147</v>
       </c>
       <c r="X148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y148">
         <v>46</v>
@@ -6692,33 +6248,30 @@
         <v>90</v>
       </c>
       <c r="AA148" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB148" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH148">
         <v>0</v>
       </c>
-      <c r="AI148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W149">
         <v>148</v>
       </c>
       <c r="X149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y149">
         <v>46</v>
@@ -6727,33 +6280,30 @@
         <v>90</v>
       </c>
       <c r="AA149" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB149" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH149">
         <v>0</v>
       </c>
-      <c r="AI149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W150">
         <v>149</v>
       </c>
       <c r="X150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y150">
         <v>46</v>
@@ -6762,33 +6312,30 @@
         <v>90</v>
       </c>
       <c r="AA150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB150" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH150">
         <v>0</v>
       </c>
-      <c r="AI150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W151">
         <v>150</v>
       </c>
       <c r="X151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y151">
         <v>46</v>
@@ -6797,33 +6344,30 @@
         <v>90</v>
       </c>
       <c r="AA151" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB151" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH151">
         <v>0</v>
       </c>
-      <c r="AI151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W152">
         <v>151</v>
       </c>
       <c r="X152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y152">
         <v>46</v>
@@ -6832,33 +6376,30 @@
         <v>90</v>
       </c>
       <c r="AA152" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB152" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH152">
         <v>0</v>
       </c>
-      <c r="AI152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W153">
         <v>152</v>
       </c>
       <c r="X153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y153">
         <v>46</v>
@@ -6867,33 +6408,30 @@
         <v>90</v>
       </c>
       <c r="AA153" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB153" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH153">
         <v>0</v>
       </c>
-      <c r="AI153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W154">
         <v>153</v>
       </c>
       <c r="X154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y154">
         <v>46</v>
@@ -6902,33 +6440,30 @@
         <v>90</v>
       </c>
       <c r="AA154" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB154" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH154">
         <v>0</v>
       </c>
-      <c r="AI154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W155">
         <v>154</v>
       </c>
       <c r="X155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y155">
         <v>46</v>
@@ -6937,33 +6472,30 @@
         <v>90</v>
       </c>
       <c r="AA155" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AB155" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="AE155" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH155">
         <v>0</v>
       </c>
-      <c r="AI155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W156">
         <v>155</v>
       </c>
       <c r="X156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y156">
         <v>47</v>
@@ -6972,33 +6504,30 @@
         <v>91</v>
       </c>
       <c r="AA156" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB156" s="2">
         <v>45043.916250000002</v>
       </c>
       <c r="AE156" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH156">
         <v>0</v>
       </c>
-      <c r="AI156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W157">
         <v>156</v>
       </c>
       <c r="X157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y157">
         <v>48</v>
@@ -7007,33 +6536,30 @@
         <v>92</v>
       </c>
       <c r="AA157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AB157" s="2">
         <v>45044.001712962963</v>
       </c>
       <c r="AE157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH157">
         <v>0</v>
       </c>
-      <c r="AI157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B158" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W158">
         <v>157</v>
       </c>
       <c r="X158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y158">
         <v>49</v>
@@ -7042,33 +6568,30 @@
         <v>93</v>
       </c>
       <c r="AA158" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB158" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="AE158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH158">
         <v>0</v>
       </c>
-      <c r="AI158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W159">
         <v>158</v>
       </c>
       <c r="X159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y159">
         <v>49</v>
@@ -7077,33 +6600,30 @@
         <v>93</v>
       </c>
       <c r="AA159" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB159" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="AE159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH159">
         <v>0</v>
       </c>
-      <c r="AI159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B160" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W160">
         <v>159</v>
       </c>
       <c r="X160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y160">
         <v>49</v>
@@ -7112,33 +6632,30 @@
         <v>93</v>
       </c>
       <c r="AA160" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB160" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="AE160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH160">
         <v>0</v>
       </c>
-      <c r="AI160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W161">
         <v>160</v>
       </c>
       <c r="X161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y161">
         <v>49</v>
@@ -7147,33 +6664,30 @@
         <v>93</v>
       </c>
       <c r="AA161" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB161" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="AE161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH161">
         <v>0</v>
       </c>
-      <c r="AI161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W162">
         <v>161</v>
       </c>
       <c r="X162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y162">
         <v>49</v>
@@ -7182,33 +6696,30 @@
         <v>93</v>
       </c>
       <c r="AA162" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB162" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="AE162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH162">
         <v>0</v>
       </c>
-      <c r="AI162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W163">
         <v>162</v>
       </c>
       <c r="X163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y163">
         <v>49</v>
@@ -7217,33 +6728,30 @@
         <v>93</v>
       </c>
       <c r="AA163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB163" s="2">
         <v>45044.514421296299</v>
       </c>
       <c r="AE163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH163">
         <v>0</v>
       </c>
-      <c r="AI163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B164" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W164">
         <v>163</v>
       </c>
       <c r="X164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y164">
         <v>50</v>
@@ -7252,33 +6760,30 @@
         <v>94</v>
       </c>
       <c r="AA164" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB164" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="AE164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH164">
         <v>0</v>
       </c>
-      <c r="AI164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W165">
         <v>164</v>
       </c>
       <c r="X165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y165">
         <v>50</v>
@@ -7287,33 +6792,30 @@
         <v>94</v>
       </c>
       <c r="AA165" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB165" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="AE165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH165">
         <v>0</v>
       </c>
-      <c r="AI165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W166">
         <v>165</v>
       </c>
       <c r="X166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y166">
         <v>50</v>
@@ -7322,33 +6824,30 @@
         <v>94</v>
       </c>
       <c r="AA166" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB166" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="AE166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH166">
         <v>0</v>
       </c>
-      <c r="AI166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W167">
         <v>166</v>
       </c>
       <c r="X167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y167">
         <v>50</v>
@@ -7357,33 +6856,30 @@
         <v>94</v>
       </c>
       <c r="AA167" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB167" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="AE167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH167">
         <v>0</v>
       </c>
-      <c r="AI167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W168">
         <v>167</v>
       </c>
       <c r="X168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y168">
         <v>50</v>
@@ -7392,33 +6888,30 @@
         <v>94</v>
       </c>
       <c r="AA168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AB168" s="2">
         <v>45044.870127314818</v>
       </c>
       <c r="AE168" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH168">
         <v>0</v>
       </c>
-      <c r="AI168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B169" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W169">
         <v>168</v>
       </c>
       <c r="X169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y169">
         <v>51</v>
@@ -7427,33 +6920,30 @@
         <v>95</v>
       </c>
       <c r="AA169" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB169" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE169" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH169">
         <v>0</v>
       </c>
-      <c r="AI169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W170">
         <v>169</v>
       </c>
       <c r="X170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y170">
         <v>51</v>
@@ -7462,33 +6952,30 @@
         <v>95</v>
       </c>
       <c r="AA170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB170" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH170">
         <v>0</v>
       </c>
-      <c r="AI170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W171">
         <v>170</v>
       </c>
       <c r="X171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y171">
         <v>51</v>
@@ -7497,33 +6984,30 @@
         <v>95</v>
       </c>
       <c r="AA171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB171" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH171">
         <v>0</v>
       </c>
-      <c r="AI171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W172">
         <v>171</v>
       </c>
       <c r="X172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y172">
         <v>51</v>
@@ -7532,33 +7016,30 @@
         <v>95</v>
       </c>
       <c r="AA172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB172" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE172" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH172">
         <v>0</v>
       </c>
-      <c r="AI172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W173">
         <v>172</v>
       </c>
       <c r="X173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y173">
         <v>51</v>
@@ -7567,33 +7048,30 @@
         <v>95</v>
       </c>
       <c r="AA173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB173" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE173" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH173">
         <v>0</v>
       </c>
-      <c r="AI173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W174">
         <v>173</v>
       </c>
       <c r="X174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y174">
         <v>51</v>
@@ -7602,33 +7080,30 @@
         <v>95</v>
       </c>
       <c r="AA174" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB174" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH174">
         <v>0</v>
       </c>
-      <c r="AI174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W175">
         <v>174</v>
       </c>
       <c r="X175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y175">
         <v>51</v>
@@ -7637,33 +7112,30 @@
         <v>95</v>
       </c>
       <c r="AA175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AB175" s="2">
         <v>45044.875173611108</v>
       </c>
       <c r="AE175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH175">
         <v>0</v>
       </c>
-      <c r="AI175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W176">
         <v>175</v>
       </c>
       <c r="X176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y176">
         <v>52</v>
@@ -7672,33 +7144,30 @@
         <v>96</v>
       </c>
       <c r="AA176" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB176" s="2">
         <v>45044.898946759262</v>
       </c>
       <c r="AE176" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH176">
         <v>0</v>
       </c>
-      <c r="AI176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W177">
         <v>176</v>
       </c>
       <c r="X177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y177">
         <v>53</v>
@@ -7707,33 +7176,30 @@
         <v>98</v>
       </c>
       <c r="AA177" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AB177" s="2">
         <v>45044.941967592589</v>
       </c>
       <c r="AE177" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH177">
         <v>0</v>
       </c>
-      <c r="AI177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W178">
         <v>177</v>
       </c>
       <c r="X178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y178">
         <v>54</v>
@@ -7742,33 +7208,30 @@
         <v>99</v>
       </c>
       <c r="AA178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB178" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="AE178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH178">
         <v>0</v>
       </c>
-      <c r="AI178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W179">
         <v>178</v>
       </c>
       <c r="X179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y179">
         <v>54</v>
@@ -7777,33 +7240,30 @@
         <v>99</v>
       </c>
       <c r="AA179" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB179" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="AE179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH179">
         <v>0</v>
       </c>
-      <c r="AI179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W180">
         <v>179</v>
       </c>
       <c r="X180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y180">
         <v>54</v>
@@ -7812,33 +7272,30 @@
         <v>99</v>
       </c>
       <c r="AA180" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AB180" s="2">
         <v>45044.956180555557</v>
       </c>
       <c r="AE180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH180">
         <v>0</v>
       </c>
-      <c r="AI180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W181">
         <v>180</v>
       </c>
       <c r="X181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y181">
         <v>55</v>
@@ -7847,33 +7304,30 @@
         <v>100</v>
       </c>
       <c r="AA181" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB181" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="AE181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH181">
         <v>0</v>
       </c>
-      <c r="AI181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W182">
         <v>181</v>
       </c>
       <c r="X182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y182">
         <v>55</v>
@@ -7882,33 +7336,30 @@
         <v>100</v>
       </c>
       <c r="AA182" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB182" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="AE182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH182">
         <v>0</v>
       </c>
-      <c r="AI182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W183">
         <v>182</v>
       </c>
       <c r="X183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y183">
         <v>55</v>
@@ -7917,33 +7368,30 @@
         <v>100</v>
       </c>
       <c r="AA183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB183" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="AE183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH183">
         <v>0</v>
       </c>
-      <c r="AI183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W184">
         <v>183</v>
       </c>
       <c r="X184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y184">
         <v>55</v>
@@ -7952,33 +7400,30 @@
         <v>100</v>
       </c>
       <c r="AA184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB184" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="AE184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH184">
         <v>0</v>
       </c>
-      <c r="AI184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W185">
         <v>184</v>
       </c>
       <c r="X185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y185">
         <v>55</v>
@@ -7987,33 +7432,30 @@
         <v>100</v>
       </c>
       <c r="AA185" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB185" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="AE185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH185">
         <v>0</v>
       </c>
-      <c r="AI185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W186">
         <v>185</v>
       </c>
       <c r="X186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y186">
         <v>55</v>
@@ -8022,33 +7464,30 @@
         <v>100</v>
       </c>
       <c r="AA186" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AB186" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="AE186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH186">
         <v>0</v>
       </c>
-      <c r="AI186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W187">
         <v>186</v>
       </c>
       <c r="X187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y187">
         <v>56</v>
@@ -8057,33 +7496,30 @@
         <v>101</v>
       </c>
       <c r="AA187" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB187" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="AE187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH187">
         <v>0</v>
       </c>
-      <c r="AI187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W188">
         <v>187</v>
       </c>
       <c r="X188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y188">
         <v>56</v>
@@ -8092,33 +7528,30 @@
         <v>101</v>
       </c>
       <c r="AA188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB188" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="AE188" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH188">
         <v>0</v>
       </c>
-      <c r="AI188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W189">
         <v>188</v>
       </c>
       <c r="X189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y189">
         <v>56</v>
@@ -8127,33 +7560,30 @@
         <v>101</v>
       </c>
       <c r="AA189" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB189" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="AE189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH189">
         <v>0</v>
       </c>
-      <c r="AI189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B190" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W190">
         <v>189</v>
       </c>
       <c r="X190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y190">
         <v>56</v>
@@ -8162,33 +7592,30 @@
         <v>101</v>
       </c>
       <c r="AA190" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB190" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="AE190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH190">
         <v>0</v>
       </c>
-      <c r="AI190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W191">
         <v>190</v>
       </c>
       <c r="X191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y191">
         <v>57</v>
@@ -8197,33 +7624,30 @@
         <v>102</v>
       </c>
       <c r="AA191" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB191" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="AE191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH191">
         <v>0</v>
       </c>
-      <c r="AI191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W192">
         <v>191</v>
       </c>
       <c r="X192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y192">
         <v>57</v>
@@ -8232,33 +7656,30 @@
         <v>102</v>
       </c>
       <c r="AA192" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB192" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="AE192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH192">
         <v>0</v>
       </c>
-      <c r="AI192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B193" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W193">
         <v>192</v>
       </c>
       <c r="X193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y193">
         <v>57</v>
@@ -8267,33 +7688,30 @@
         <v>102</v>
       </c>
       <c r="AA193" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB193" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="AE193" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH193">
         <v>0</v>
       </c>
-      <c r="AI193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W194">
         <v>193</v>
       </c>
       <c r="X194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y194">
         <v>57</v>
@@ -8302,33 +7720,30 @@
         <v>102</v>
       </c>
       <c r="AA194" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB194" s="2">
         <v>45045.004791666674</v>
       </c>
       <c r="AE194" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH194">
         <v>0</v>
       </c>
-      <c r="AI194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W195">
         <v>194</v>
       </c>
       <c r="X195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y195">
         <v>58</v>
@@ -8337,33 +7752,30 @@
         <v>103</v>
       </c>
       <c r="AA195" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AB195" s="2">
         <v>45045.071967592587</v>
       </c>
       <c r="AE195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH195">
         <v>0</v>
       </c>
-      <c r="AI195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B196" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W196">
         <v>195</v>
       </c>
       <c r="X196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y196">
         <v>59</v>
@@ -8372,33 +7784,30 @@
         <v>104</v>
       </c>
       <c r="AA196" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB196" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="AE196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH196">
         <v>0</v>
       </c>
-      <c r="AI196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W197">
         <v>196</v>
       </c>
       <c r="X197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y197">
         <v>59</v>
@@ -8407,33 +7816,30 @@
         <v>104</v>
       </c>
       <c r="AA197" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB197" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="AE197" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH197">
         <v>0</v>
       </c>
-      <c r="AI197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W198">
         <v>197</v>
       </c>
       <c r="X198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y198">
         <v>59</v>
@@ -8442,33 +7848,30 @@
         <v>104</v>
       </c>
       <c r="AA198" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB198" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="AE198" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH198">
         <v>0</v>
       </c>
-      <c r="AI198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B199" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W199">
         <v>198</v>
       </c>
       <c r="X199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y199">
         <v>59</v>
@@ -8477,33 +7880,30 @@
         <v>104</v>
       </c>
       <c r="AA199" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB199" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="AE199" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH199">
         <v>0</v>
       </c>
-      <c r="AI199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W200">
         <v>199</v>
       </c>
       <c r="X200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y200">
         <v>59</v>
@@ -8512,33 +7912,30 @@
         <v>104</v>
       </c>
       <c r="AA200" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AB200" s="2">
         <v>45045.120833333327</v>
       </c>
       <c r="AE200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH200">
         <v>0</v>
       </c>
-      <c r="AI200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W201">
         <v>200</v>
       </c>
       <c r="X201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y201">
         <v>60</v>
@@ -8547,33 +7944,30 @@
         <v>105</v>
       </c>
       <c r="AA201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AB201" s="2">
         <v>45045.136759259258</v>
       </c>
       <c r="AE201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH201">
         <v>0</v>
       </c>
-      <c r="AI201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W202">
         <v>201</v>
       </c>
       <c r="X202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y202">
         <v>61</v>
@@ -8582,33 +7976,30 @@
         <v>106</v>
       </c>
       <c r="AA202" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AB202" s="2">
         <v>45045.147962962961</v>
       </c>
       <c r="AE202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH202">
         <v>0</v>
       </c>
-      <c r="AI202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W203">
         <v>202</v>
       </c>
       <c r="X203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y203">
         <v>62</v>
@@ -8617,33 +8008,30 @@
         <v>109</v>
       </c>
       <c r="AA203" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AB203" s="2">
         <v>45045.178460648152</v>
       </c>
       <c r="AE203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH203">
         <v>0</v>
       </c>
-      <c r="AI203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B204" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W204">
         <v>203</v>
       </c>
       <c r="X204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y204">
         <v>63</v>
@@ -8652,33 +8040,30 @@
         <v>110</v>
       </c>
       <c r="AA204" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AB204" s="2">
         <v>45045.208935185183</v>
       </c>
       <c r="AE204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH204">
         <v>0</v>
       </c>
-      <c r="AI204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W205">
         <v>204</v>
       </c>
       <c r="X205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y205">
         <v>64</v>
@@ -8687,33 +8072,30 @@
         <v>111</v>
       </c>
       <c r="AA205" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB205" s="2">
         <v>45045.679583333331</v>
       </c>
       <c r="AE205" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH205">
         <v>0</v>
       </c>
-      <c r="AI205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W206">
         <v>205</v>
       </c>
       <c r="X206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y206">
         <v>65</v>
@@ -8722,33 +8104,30 @@
         <v>113</v>
       </c>
       <c r="AA206" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB206" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="AE206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH206">
         <v>0</v>
       </c>
-      <c r="AI206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W207">
         <v>206</v>
       </c>
       <c r="X207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y207">
         <v>65</v>
@@ -8757,33 +8136,30 @@
         <v>113</v>
       </c>
       <c r="AA207" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB207" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="AE207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH207">
         <v>0</v>
       </c>
-      <c r="AI207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W208">
         <v>207</v>
       </c>
       <c r="X208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y208">
         <v>65</v>
@@ -8792,33 +8168,30 @@
         <v>113</v>
       </c>
       <c r="AA208" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB208" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="AE208" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH208">
         <v>0</v>
       </c>
-      <c r="AI208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W209">
         <v>208</v>
       </c>
       <c r="X209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y209">
         <v>65</v>
@@ -8827,33 +8200,30 @@
         <v>113</v>
       </c>
       <c r="AA209" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB209" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="AE209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH209">
         <v>0</v>
       </c>
-      <c r="AI209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W210">
         <v>209</v>
       </c>
       <c r="X210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y210">
         <v>65</v>
@@ -8862,33 +8232,30 @@
         <v>113</v>
       </c>
       <c r="AA210" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AB210" s="2">
         <v>45046.885046296287</v>
       </c>
       <c r="AE210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH210">
         <v>0</v>
       </c>
-      <c r="AI210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W211">
         <v>210</v>
       </c>
       <c r="X211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y211">
         <v>66</v>
@@ -8897,33 +8264,30 @@
         <v>114</v>
       </c>
       <c r="AA211" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB211" s="2">
         <v>45048.514745370368</v>
       </c>
       <c r="AE211" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH211">
         <v>0</v>
       </c>
-      <c r="AI211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W212">
         <v>211</v>
       </c>
       <c r="X212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y212">
         <v>67</v>
@@ -8932,33 +8296,30 @@
         <v>115</v>
       </c>
       <c r="AA212" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB212" s="2">
         <v>45048.691724537042</v>
       </c>
       <c r="AE212" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH212">
         <v>0</v>
       </c>
-      <c r="AI212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W213">
         <v>212</v>
       </c>
       <c r="X213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y213">
         <v>68</v>
@@ -8967,33 +8328,30 @@
         <v>117</v>
       </c>
       <c r="AA213" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB213" s="2">
         <v>45048.788657407407</v>
       </c>
       <c r="AE213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH213">
         <v>0</v>
       </c>
-      <c r="AI213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W214">
         <v>213</v>
       </c>
       <c r="X214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y214">
         <v>69</v>
@@ -9002,33 +8360,30 @@
         <v>118</v>
       </c>
       <c r="AA214" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB214" s="2">
         <v>45058.123055555552</v>
       </c>
       <c r="AE214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH214">
         <v>0</v>
       </c>
-      <c r="AI214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W215">
         <v>214</v>
       </c>
       <c r="X215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y215">
         <v>70</v>
@@ -9037,33 +8392,30 @@
         <v>119</v>
       </c>
       <c r="AA215" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB215" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE215" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH215">
         <v>0</v>
       </c>
-      <c r="AI215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W216">
         <v>215</v>
       </c>
       <c r="X216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y216">
         <v>70</v>
@@ -9072,33 +8424,30 @@
         <v>119</v>
       </c>
       <c r="AA216" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB216" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE216" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH216">
         <v>0</v>
       </c>
-      <c r="AI216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W217">
         <v>216</v>
       </c>
       <c r="X217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y217">
         <v>70</v>
@@ -9107,33 +8456,30 @@
         <v>119</v>
       </c>
       <c r="AA217" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB217" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE217" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH217">
         <v>0</v>
       </c>
-      <c r="AI217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W218">
         <v>217</v>
       </c>
       <c r="X218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y218">
         <v>70</v>
@@ -9142,33 +8488,30 @@
         <v>119</v>
       </c>
       <c r="AA218" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB218" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH218">
         <v>0</v>
       </c>
-      <c r="AI218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W219">
         <v>218</v>
       </c>
       <c r="X219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y219">
         <v>70</v>
@@ -9177,33 +8520,30 @@
         <v>119</v>
       </c>
       <c r="AA219" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB219" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH219">
         <v>0</v>
       </c>
-      <c r="AI219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B220" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W220">
         <v>219</v>
       </c>
       <c r="X220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y220">
         <v>70</v>
@@ -9212,33 +8552,30 @@
         <v>119</v>
       </c>
       <c r="AA220" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB220" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH220">
         <v>0</v>
       </c>
-      <c r="AI220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W221">
         <v>220</v>
       </c>
       <c r="X221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y221">
         <v>70</v>
@@ -9247,33 +8584,30 @@
         <v>119</v>
       </c>
       <c r="AA221" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB221" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE221" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH221">
         <v>0</v>
       </c>
-      <c r="AI221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W222">
         <v>221</v>
       </c>
       <c r="X222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y222">
         <v>70</v>
@@ -9282,33 +8616,30 @@
         <v>119</v>
       </c>
       <c r="AA222" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB222" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE222" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH222">
         <v>0</v>
       </c>
-      <c r="AI222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W223">
         <v>222</v>
       </c>
       <c r="X223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y223">
         <v>70</v>
@@ -9317,33 +8648,30 @@
         <v>119</v>
       </c>
       <c r="AA223" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB223" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE223" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH223">
         <v>0</v>
       </c>
-      <c r="AI223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W224">
         <v>223</v>
       </c>
       <c r="X224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y224">
         <v>70</v>
@@ -9352,33 +8680,30 @@
         <v>119</v>
       </c>
       <c r="AA224" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB224" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE224" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH224">
         <v>0</v>
       </c>
-      <c r="AI224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W225">
         <v>224</v>
       </c>
       <c r="X225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y225">
         <v>70</v>
@@ -9387,33 +8712,30 @@
         <v>119</v>
       </c>
       <c r="AA225" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB225" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH225">
         <v>0</v>
       </c>
-      <c r="AI225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W226">
         <v>225</v>
       </c>
       <c r="X226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y226">
         <v>70</v>
@@ -9422,33 +8744,30 @@
         <v>119</v>
       </c>
       <c r="AA226" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB226" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE226" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH226">
         <v>0</v>
       </c>
-      <c r="AI226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B227" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W227">
         <v>226</v>
       </c>
       <c r="X227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y227">
         <v>70</v>
@@ -9457,33 +8776,30 @@
         <v>119</v>
       </c>
       <c r="AA227" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB227" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE227" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH227">
         <v>0</v>
       </c>
-      <c r="AI227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W228">
         <v>227</v>
       </c>
       <c r="X228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y228">
         <v>70</v>
@@ -9492,33 +8808,30 @@
         <v>119</v>
       </c>
       <c r="AA228" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB228" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH228">
         <v>0</v>
       </c>
-      <c r="AI228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B229" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W229">
         <v>228</v>
       </c>
       <c r="X229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y229">
         <v>70</v>
@@ -9527,33 +8840,30 @@
         <v>119</v>
       </c>
       <c r="AA229" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB229" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE229" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH229">
         <v>0</v>
       </c>
-      <c r="AI229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W230">
         <v>229</v>
       </c>
       <c r="X230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y230">
         <v>70</v>
@@ -9562,33 +8872,30 @@
         <v>119</v>
       </c>
       <c r="AA230" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB230" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE230" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH230">
         <v>0</v>
       </c>
-      <c r="AI230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W231">
         <v>230</v>
       </c>
       <c r="X231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y231">
         <v>70</v>
@@ -9597,33 +8904,30 @@
         <v>119</v>
       </c>
       <c r="AA231" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB231" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE231" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH231">
         <v>0</v>
       </c>
-      <c r="AI231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W232">
         <v>231</v>
       </c>
       <c r="X232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y232">
         <v>70</v>
@@ -9632,33 +8936,30 @@
         <v>119</v>
       </c>
       <c r="AA232" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB232" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH232">
         <v>0</v>
       </c>
-      <c r="AI232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W233">
         <v>232</v>
       </c>
       <c r="X233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y233">
         <v>70</v>
@@ -9667,33 +8968,30 @@
         <v>119</v>
       </c>
       <c r="AA233" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB233" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH233">
         <v>0</v>
       </c>
-      <c r="AI233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W234">
         <v>233</v>
       </c>
       <c r="X234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y234">
         <v>70</v>
@@ -9702,33 +9000,30 @@
         <v>119</v>
       </c>
       <c r="AA234" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB234" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE234" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH234">
         <v>0</v>
       </c>
-      <c r="AI234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W235">
         <v>234</v>
       </c>
       <c r="X235" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y235">
         <v>70</v>
@@ -9737,33 +9032,30 @@
         <v>119</v>
       </c>
       <c r="AA235" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB235" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE235" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH235">
         <v>0</v>
       </c>
-      <c r="AI235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W236">
         <v>235</v>
       </c>
       <c r="X236" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y236">
         <v>70</v>
@@ -9772,33 +9064,30 @@
         <v>119</v>
       </c>
       <c r="AA236" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB236" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE236" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH236">
         <v>0</v>
       </c>
-      <c r="AI236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W237">
         <v>236</v>
       </c>
       <c r="X237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y237">
         <v>70</v>
@@ -9807,33 +9096,30 @@
         <v>119</v>
       </c>
       <c r="AA237" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB237" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE237" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH237">
         <v>0</v>
       </c>
-      <c r="AI237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B238" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W238">
         <v>237</v>
       </c>
       <c r="X238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y238">
         <v>70</v>
@@ -9842,33 +9128,30 @@
         <v>119</v>
       </c>
       <c r="AA238" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB238" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE238" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH238">
         <v>0</v>
       </c>
-      <c r="AI238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W239">
         <v>238</v>
       </c>
       <c r="X239" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y239">
         <v>70</v>
@@ -9877,33 +9160,30 @@
         <v>119</v>
       </c>
       <c r="AA239" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB239" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE239" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH239">
         <v>0</v>
       </c>
-      <c r="AI239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W240">
         <v>239</v>
       </c>
       <c r="X240" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y240">
         <v>70</v>
@@ -9912,33 +9192,30 @@
         <v>119</v>
       </c>
       <c r="AA240" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB240" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH240">
         <v>0</v>
       </c>
-      <c r="AI240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W241">
         <v>240</v>
       </c>
       <c r="X241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y241">
         <v>70</v>
@@ -9947,18 +9224,15 @@
         <v>119</v>
       </c>
       <c r="AA241" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB241" s="2">
         <v>45059.227662037039</v>
       </c>
       <c r="AE241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH241">
-        <v>0</v>
-      </c>
-      <c r="AI241">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p22.xlsx
+++ b/files/separadas/repeat_p22.xlsx
@@ -5494,7 +5494,7 @@
       <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr"/>
       <c r="AH75" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="76">
@@ -5560,7 +5560,7 @@
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr"/>
       <c r="AH76" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="77">

--- a/files/separadas/repeat_p22.xlsx
+++ b/files/separadas/repeat_p22.xlsx
@@ -1333,7 +1333,7 @@
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -1399,7 +1399,7 @@
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15">
@@ -5098,7 +5098,7 @@
       <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr"/>
       <c r="AH69" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
@@ -8662,7 +8662,7 @@
       <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="inlineStr"/>
       <c r="AH123" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="124">
@@ -8728,7 +8728,7 @@
       <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="inlineStr"/>
       <c r="AH124" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125">
@@ -8794,7 +8794,7 @@
       <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="inlineStr"/>
       <c r="AH125" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126">
@@ -12292,7 +12292,7 @@
       <c r="AF178" t="inlineStr"/>
       <c r="AG178" t="inlineStr"/>
       <c r="AH178" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="179">
@@ -12358,7 +12358,7 @@
       <c r="AF179" t="inlineStr"/>
       <c r="AG179" t="inlineStr"/>
       <c r="AH179" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="180">
@@ -12424,7 +12424,7 @@
       <c r="AF180" t="inlineStr"/>
       <c r="AG180" t="inlineStr"/>
       <c r="AH180" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="181">
@@ -13481,7 +13481,7 @@
       <c r="AF196" t="inlineStr"/>
       <c r="AG196" t="inlineStr"/>
       <c r="AH196" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="197">
@@ -13547,7 +13547,7 @@
       <c r="AF197" t="inlineStr"/>
       <c r="AG197" t="inlineStr"/>
       <c r="AH197" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198">
@@ -13613,7 +13613,7 @@
       <c r="AF198" t="inlineStr"/>
       <c r="AG198" t="inlineStr"/>
       <c r="AH198" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="199">
@@ -13679,7 +13679,7 @@
       <c r="AF199" t="inlineStr"/>
       <c r="AG199" t="inlineStr"/>
       <c r="AH199" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="200">
@@ -13745,7 +13745,7 @@
       <c r="AF200" t="inlineStr"/>
       <c r="AG200" t="inlineStr"/>
       <c r="AH200" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201">
@@ -13879,7 +13879,7 @@
       <c r="AF202" t="inlineStr"/>
       <c r="AG202" t="inlineStr"/>
       <c r="AH202" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="203">
@@ -14011,7 +14011,7 @@
       <c r="AF204" t="inlineStr"/>
       <c r="AG204" t="inlineStr"/>
       <c r="AH204" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="205">
